--- a/data/trans_bre/P34_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,72%</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>-26,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-44,9%</t>
+          <t>-23,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-28,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-44,86%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-34,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 2,81</t>
+          <t>-17,08; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 5,54</t>
+          <t>-15,87; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 13,34</t>
+          <t>-9,18; 11,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -0,16</t>
+          <t>-13,2; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 14,77</t>
+          <t>-22,65; -0,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 33,93</t>
+          <t>-20,71; 1,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 103,56</t>
+          <t>-55,09; 13,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 0,02</t>
+          <t>-54,19; 27,42</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-41,12; 88,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-68,03; 69,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-70,92; -3,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-62,7; 7,12</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,7</t>
+          <t>-22,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,2</t>
+          <t>-14,64</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-11,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-56,02%</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,9%</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-45,03%</t>
+          <t>-54,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,36%</t>
+          <t>-46,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-44,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-39,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-23,34%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-16,86%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -13,33</t>
+          <t>-34,88; -11,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,27; -7,35</t>
+          <t>-24,58; -7,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -5,36</t>
+          <t>-25,02; -5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 3,7</t>
+          <t>-26,1; -0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,17; -35,45</t>
+          <t>-18,07; 3,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -25,2</t>
+          <t>-17,18; 5,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -19,45</t>
+          <t>-69,55; -33,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 16,68</t>
+          <t>-64,81; -26,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-61,99; -18,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-65,28; -0,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-50,22; 17,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-44,13; 21,83</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,57</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-11,98</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-34,3%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-35,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-14,9%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-24,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>-32,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -2,09</t>
+          <t>-20,73; -2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 4,29</t>
+          <t>-9,35; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 4,02</t>
+          <t>-13,1; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,4; -3,91</t>
+          <t>-17,47; 2,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -6,47</t>
+          <t>-21,44; -4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 18,78</t>
+          <t>-11,08; 6,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 20,03</t>
+          <t>-53,11; -9,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -10,87</t>
+          <t>-29,75; 19,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-38,31; 12,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-51,16; 14,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-52,04; -13,66</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 27,32</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>-27,8%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-6,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 4,47</t>
+          <t>-10,17; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -1,1</t>
+          <t>-14,46; -0,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 6,53</t>
+          <t>-6,26; 6,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 11,43</t>
+          <t>-10,01; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 20,5</t>
+          <t>-7,0; 12,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,38; -4,5</t>
+          <t>-9,55; 8,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 36,67</t>
+          <t>-32,88; 24,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 36,37</t>
+          <t>-45,73; -2,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 32,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,38; 33,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 41,2</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-26,4; 30,1</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>2,92</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,28%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-24,05%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-29,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-23,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>10,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-18,57%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 5,33</t>
+          <t>-11,15; 6,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -0,73</t>
+          <t>-14,98; -0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 1,02</t>
+          <t>-12,8; 0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 11,61</t>
+          <t>-9,56; 6,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 24,65</t>
+          <t>-6,53; 11,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-49,09; -3,54</t>
+          <t>-14,02; 3,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 4,86</t>
+          <t>-35,75; 28,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 52,97</t>
+          <t>-48,9; -2,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-45,88; 4,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; 36,9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-19,47; 51,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-40,56; 14,6</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,09%</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,9%</t>
+          <t>-14,0</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-49,71%</t>
+          <t>-54,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-58,8%</t>
+          <t>-41,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-42,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-66,85%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-58,85%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-65,47%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -0,79</t>
+          <t>-11,96; -0,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 0,72</t>
+          <t>-10,75; 0,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 0,14</t>
+          <t>-10,01; 0,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -2,53</t>
+          <t>-16,91; -2,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,37; -0,1</t>
+          <t>-16,59; -2,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 13,82</t>
+          <t>-21,83; -6,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 8,14</t>
+          <t>-81,44; -5,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -17,35</t>
+          <t>-71,89; 10,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-72,25; 16,4</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,86; -17,1</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-79,91; -14,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-81,44; -33,78</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-6,28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-6,53</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-35,13%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-33,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>-29,99%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-22,08%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-29,19%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-22,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-23,02%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -6,08</t>
+          <t>-13,23; -5,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -4,91</t>
+          <t>-10,69; -4,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -2,11</t>
+          <t>-8,73; -1,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -2,55</t>
+          <t>-10,45; -2,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,35; -24,35</t>
+          <t>-10,33; -2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,84; -20,05</t>
+          <t>-10,71; -2,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-34,55; -10,19</t>
+          <t>-43,46; -22,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -9,8</t>
+          <t>-39,85; -18,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; -9,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-42,88; -12,84</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; -9,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; -10,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
